--- a/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/機能一覧_第1.0版.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/機能一覧_第1.0版.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakaiharuka/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6F86E5E-C511-4A40-95A5-0E5060BC1E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{675642EC-0A86-7B4F-AC5E-37EE9E18941A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
     <sheet name="機能一覧　作成例" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'機能一覧　作成例'!$A$1:$I$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'機能一覧　作成例'!$A$1:$I$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$A$1:$IV$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -1258,7 +1257,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,9 +1321,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1346,6 +1342,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1353,6 +1361,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,35 +1431,59 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1426,86 +1500,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1818,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="AC9" sqref="AC9:AD11"/>
     </sheetView>
   </sheetViews>
@@ -2259,14 +2255,14 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
-      <c r="Y3" s="66" t="s">
+      <c r="Y3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="67"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="47"/>
       <c r="AE3" s="17"/>
       <c r="AF3" s="20"/>
     </row>
@@ -2435,18 +2431,18 @@
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="45" t="s">
+      <c r="Y8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="45" t="s">
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="45" t="s">
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="AD8" s="47"/>
+      <c r="AD8" s="50"/>
       <c r="AF8" s="20"/>
     </row>
     <row r="9" spans="1:176" ht="12.75" customHeight="1">
@@ -2457,20 +2453,20 @@
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="71"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -2478,40 +2474,40 @@
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="104" t="s">
+      <c r="Y9" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="104" t="s">
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="AD9" s="105"/>
+      <c r="AD9" s="56"/>
       <c r="AF9" s="20"/>
     </row>
     <row r="10" spans="1:176" ht="12.75" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="76"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -2519,32 +2515,32 @@
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="107"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="58"/>
       <c r="AF10" s="20"/>
     </row>
     <row r="11" spans="1:176" ht="12.75" customHeight="1">
       <c r="A11" s="16"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -2552,12 +2548,12 @@
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="19"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="108"/>
-      <c r="AD11" s="109"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="60"/>
       <c r="AF11" s="20"/>
     </row>
     <row r="12" spans="1:176" ht="12.75" customHeight="1">
@@ -2776,18 +2772,18 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="61" t="s">
+      <c r="L18" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="19"/>
@@ -2812,16 +2808,16 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="19"/>
@@ -2846,16 +2842,16 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
@@ -3086,39 +3082,39 @@
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="63">
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="82">
         <v>43636</v>
       </c>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="45" t="s">
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="47"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="50"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="28" t="s">
         <v>86</v>
@@ -3128,33 +3124,33 @@
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="50"/>
       <c r="AC28" s="30"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="17"/>
@@ -3706,6 +3702,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:Q11"/>
+    <mergeCell ref="L18:U20"/>
+    <mergeCell ref="F27:I27"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="J27:AB27"/>
     <mergeCell ref="B27:E27"/>
@@ -3717,13 +3720,6 @@
     <mergeCell ref="Y9:Z11"/>
     <mergeCell ref="AA9:AB11"/>
     <mergeCell ref="AC9:AD11"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:Q11"/>
-    <mergeCell ref="L18:U20"/>
-    <mergeCell ref="F27:I27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3737,10 +3733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I37"/>
+  <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -3757,18 +3753,18 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="2" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="105" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
@@ -3777,34 +3773,34 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B3" s="81"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="103">
+      <c r="I3" s="45">
         <v>43607</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B4" s="82"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
@@ -3813,32 +3809,32 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="105" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="36"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B6" s="82"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3847,7 +3843,7 @@
     <row r="7" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="8" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="9" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3865,413 +3861,377 @@
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="91" t="s">
+      <c r="H9" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="92"/>
+      <c r="I9" s="87"/>
     </row>
     <row r="10" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="92" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
     </row>
     <row r="11" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B11" s="87"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="93"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B12" s="87"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="95"/>
+      <c r="I12" s="89"/>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B13" s="87"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
     </row>
     <row r="14" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B14" s="87"/>
-      <c r="C14" s="84"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="95"/>
+      <c r="I14" s="89"/>
     </row>
     <row r="15" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B15" s="87"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="95"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
     </row>
     <row r="16" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B16" s="87"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
     </row>
     <row r="17" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B17" s="87"/>
-      <c r="C17" s="98" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="40" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
     </row>
     <row r="18" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B18" s="87"/>
-      <c r="C18" s="99" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="100" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
     </row>
     <row r="19" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B19" s="87"/>
-      <c r="C19" s="100"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
     </row>
     <row r="20" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B20" s="87"/>
-      <c r="C20" s="101"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
     </row>
     <row r="21" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B21" s="87"/>
-      <c r="C21" s="78" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="103" t="s">
         <v>100</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
     </row>
     <row r="22" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B22" s="87"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B23" s="87"/>
-      <c r="C23" s="102" t="s">
+      <c r="B23" s="97"/>
+      <c r="C23" s="108" t="s">
         <v>107</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="40" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-    </row>
-    <row r="24" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B24" s="87"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="87"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
+      <c r="B25" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="87"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="88"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="39" t="s">
+      <c r="B29" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>73</v>
+      <c r="F29" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="79"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="39" t="s">
+      <c r="B30" s="104"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>80</v>
-      </c>
+      <c r="F30" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="79"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="79"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39" t="s">
+      <c r="B33" s="104"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H20:I20"/>
+  <mergeCells count="29">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -4281,20 +4241,12 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="B10:B27"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/機能一覧_第1.0版.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/機能一覧_第1.0版.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakaiharuka/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{675642EC-0A86-7B4F-AC5E-37EE9E18941A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACEF6B2-68AA-E347-8C58-85847CA86672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -939,6 +939,58 @@
     <t>中村</t>
     <rPh sb="0" eb="2">
       <t>ナカムr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気予報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="1">
+      <t>キノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f-4-1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f-4-1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規定時間に天気情報を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>キテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規定時間に最高温度、最低気温を表示する</t>
+    <rPh sb="0" eb="1">
+      <t>キテ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1348,11 +1400,8 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1361,48 +1410,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1431,15 +1438,111 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1451,57 +1554,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2255,14 +2307,14 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
-      <c r="Y3" s="46" t="s">
+      <c r="Y3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="47"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="69"/>
       <c r="AE3" s="17"/>
       <c r="AF3" s="20"/>
     </row>
@@ -2431,18 +2483,18 @@
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="48" t="s">
+      <c r="Y8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="48" t="s">
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="48" t="s">
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AD8" s="50"/>
+      <c r="AD8" s="49"/>
       <c r="AF8" s="20"/>
     </row>
     <row r="9" spans="1:176" ht="12.75" customHeight="1">
@@ -2453,20 +2505,20 @@
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -2474,40 +2526,40 @@
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="55" t="s">
+      <c r="Y9" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="55" t="s">
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="AD9" s="56"/>
+      <c r="AD9" s="75"/>
       <c r="AF9" s="20"/>
     </row>
     <row r="10" spans="1:176" ht="12.75" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="74" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="76"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="59"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -2515,32 +2567,32 @@
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="58"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="77"/>
       <c r="AF10" s="20"/>
     </row>
     <row r="11" spans="1:176" ht="12.75" customHeight="1">
       <c r="A11" s="16"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="79"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="62"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -2548,12 +2600,12 @@
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="19"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="60"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="79"/>
       <c r="AF11" s="20"/>
     </row>
     <row r="12" spans="1:176" ht="12.75" customHeight="1">
@@ -2772,18 +2824,18 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="80" t="s">
+      <c r="L18" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="19"/>
@@ -2808,16 +2860,16 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="19"/>
@@ -2842,16 +2894,16 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
@@ -3082,39 +3134,39 @@
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="82">
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="65">
         <v>43636</v>
       </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="48" t="s">
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="50"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="49"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="28" t="s">
         <v>86</v>
@@ -3124,33 +3176,33 @@
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="50"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="49"/>
       <c r="AC28" s="30"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="17"/>
@@ -3702,13 +3754,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:Q11"/>
-    <mergeCell ref="L18:U20"/>
-    <mergeCell ref="F27:I27"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="J27:AB27"/>
     <mergeCell ref="B27:E27"/>
@@ -3720,6 +3765,13 @@
     <mergeCell ref="Y9:Z11"/>
     <mergeCell ref="AA9:AB11"/>
     <mergeCell ref="AC9:AD11"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:Q11"/>
+    <mergeCell ref="L18:U20"/>
+    <mergeCell ref="F27:I27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3733,10 +3785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I33"/>
+  <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="95" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -3753,18 +3805,18 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="2" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="88" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
@@ -3773,16 +3825,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B3" s="106"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
@@ -3791,16 +3843,16 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B4" s="107"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
@@ -3809,32 +3861,32 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="88" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="36"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B6" s="107"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3861,16 +3913,16 @@
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="103"/>
     </row>
     <row r="10" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="91" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3885,12 +3937,12 @@
       <c r="G10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="90"/>
-      <c r="I10" s="91"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="108"/>
     </row>
     <row r="11" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B11" s="96"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
@@ -3903,14 +3955,14 @@
       <c r="G11" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="85"/>
+      <c r="I11" s="104"/>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B12" s="96"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,14 +3975,14 @@
       <c r="G12" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="89"/>
+      <c r="I12" s="106"/>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B13" s="96"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
@@ -3943,12 +3995,12 @@
       <c r="G13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106"/>
     </row>
     <row r="14" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B14" s="96"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
@@ -3961,14 +4013,14 @@
       <c r="G14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="89"/>
+      <c r="I14" s="106"/>
     </row>
     <row r="15" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B15" s="96"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
@@ -3981,21 +4033,21 @@
       <c r="G15" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="106"/>
     </row>
     <row r="16" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B16" s="96"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="43"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="41"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
     </row>
     <row r="17" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B17" s="96"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="44" t="s">
         <v>87</v>
       </c>
@@ -4009,12 +4061,12 @@
       <c r="G17" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
     </row>
     <row r="18" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B18" s="96"/>
-      <c r="C18" s="100" t="s">
+      <c r="B18" s="95"/>
+      <c r="C18" s="99" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -4029,12 +4081,12 @@
       <c r="G18" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
     </row>
     <row r="19" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B19" s="96"/>
-      <c r="C19" s="101"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="1" t="s">
         <v>94</v>
       </c>
@@ -4047,12 +4099,12 @@
       <c r="G19" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
     </row>
     <row r="20" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B20" s="96"/>
-      <c r="C20" s="102"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="1" t="s">
         <v>97</v>
       </c>
@@ -4065,12 +4117,12 @@
       <c r="G20" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
     </row>
     <row r="21" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B21" s="96"/>
-      <c r="C21" s="103" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="86" t="s">
         <v>100</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -4085,12 +4137,12 @@
       <c r="G21" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
     </row>
     <row r="22" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B22" s="96"/>
-      <c r="C22" s="104"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="1" t="s">
         <v>104</v>
       </c>
@@ -4103,12 +4155,12 @@
       <c r="G22" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
     </row>
     <row r="23" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B23" s="97"/>
-      <c r="C23" s="108" t="s">
+      <c r="B23" s="96"/>
+      <c r="C23" s="46" t="s">
         <v>107</v>
       </c>
       <c r="D23" s="1"/>
@@ -4117,11 +4169,11 @@
       <c r="G23" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="86" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="38" t="s">
@@ -4141,7 +4193,7 @@
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="104"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38" t="s">
         <v>78</v>
@@ -4157,7 +4209,7 @@
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="86" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="38" t="s">
@@ -4177,7 +4229,7 @@
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="104"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38" t="s">
         <v>74</v>
@@ -4193,7 +4245,7 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="86" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="38" t="s">
@@ -4207,7 +4259,7 @@
       <c r="G32" s="38"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="104"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38" t="s">
         <v>84</v>
@@ -4216,13 +4268,60 @@
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
     </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="87"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="30">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B23"/>
     <mergeCell ref="D2:G2"/>
@@ -4232,21 +4331,11 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/機能一覧_第1.0版.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/機能一覧_第1.0版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACEF6B2-68AA-E347-8C58-85847CA86672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755EFC22-380E-3A45-952B-EC222A0C80A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -1404,12 +1404,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1438,60 +1486,66 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1500,60 +1554,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9:AD11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2307,14 +2307,14 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
-      <c r="Y3" s="68" t="s">
+      <c r="Y3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="69"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="48"/>
       <c r="AE3" s="17"/>
       <c r="AF3" s="20"/>
     </row>
@@ -2483,18 +2483,18 @@
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="47" t="s">
+      <c r="Y8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="47" t="s">
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="47" t="s">
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AD8" s="49"/>
+      <c r="AD8" s="51"/>
       <c r="AF8" s="20"/>
     </row>
     <row r="9" spans="1:176" ht="12.75" customHeight="1">
@@ -2505,20 +2505,20 @@
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="73"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -2526,40 +2526,40 @@
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="74" t="s">
+      <c r="Y9" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="74" t="s">
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="AD9" s="75"/>
+      <c r="AD9" s="57"/>
       <c r="AF9" s="20"/>
     </row>
     <row r="10" spans="1:176" ht="12.75" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="57" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="59"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="77"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -2567,32 +2567,32 @@
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="77"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="59"/>
       <c r="AF10" s="20"/>
     </row>
     <row r="11" spans="1:176" ht="12.75" customHeight="1">
       <c r="A11" s="16"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="80"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -2600,12 +2600,12 @@
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="19"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="79"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="61"/>
       <c r="AF11" s="20"/>
     </row>
     <row r="12" spans="1:176" ht="12.75" customHeight="1">
@@ -2824,18 +2824,18 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="63" t="s">
+      <c r="L18" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="19"/>
@@ -2860,16 +2860,16 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="19"/>
@@ -2894,16 +2894,16 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
@@ -3134,39 +3134,39 @@
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="65">
-        <v>43636</v>
-      </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="47" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="83">
+        <v>43605</v>
+      </c>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="49"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="51"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="28" t="s">
         <v>86</v>
@@ -3176,33 +3176,33 @@
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="51"/>
       <c r="AC28" s="30"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="17"/>
@@ -3754,6 +3754,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:Q11"/>
+    <mergeCell ref="L18:U20"/>
+    <mergeCell ref="F27:I27"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="J27:AB27"/>
     <mergeCell ref="B27:E27"/>
@@ -3765,13 +3772,6 @@
     <mergeCell ref="Y9:Z11"/>
     <mergeCell ref="AA9:AB11"/>
     <mergeCell ref="AC9:AD11"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:Q11"/>
-    <mergeCell ref="L18:U20"/>
-    <mergeCell ref="F27:I27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3787,7 +3787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="95" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
@@ -3805,18 +3805,18 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="2" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="106" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
@@ -3825,16 +3825,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B3" s="89"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
@@ -3843,16 +3843,16 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B4" s="90"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
@@ -3861,32 +3861,32 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="106" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="36"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B6" s="90"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3913,16 +3913,16 @@
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="103"/>
+      <c r="I9" s="90"/>
     </row>
     <row r="10" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="95" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3937,12 +3937,12 @@
       <c r="G10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="108"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B11" s="95"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
@@ -3955,14 +3955,14 @@
       <c r="G11" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="104" t="s">
+      <c r="H11" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="104"/>
+      <c r="I11" s="88"/>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B12" s="95"/>
-      <c r="C12" s="92"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
@@ -3975,14 +3975,14 @@
       <c r="G12" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="105" t="s">
+      <c r="H12" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="106"/>
+      <c r="I12" s="92"/>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B13" s="95"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
@@ -3995,12 +3995,12 @@
       <c r="G13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
     </row>
     <row r="14" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B14" s="95"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
@@ -4013,14 +4013,14 @@
       <c r="G14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="105" t="s">
+      <c r="H14" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="106"/>
+      <c r="I14" s="92"/>
     </row>
     <row r="15" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B15" s="95"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
@@ -4033,21 +4033,21 @@
       <c r="G15" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="106"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
     </row>
     <row r="16" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B16" s="95"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="43"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="41"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
     </row>
     <row r="17" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B17" s="95"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="44" t="s">
         <v>87</v>
       </c>
@@ -4061,12 +4061,12 @@
       <c r="G17" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
     </row>
     <row r="18" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B18" s="95"/>
-      <c r="C18" s="99" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="103" t="s">
         <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -4081,12 +4081,12 @@
       <c r="G18" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
     </row>
     <row r="19" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B19" s="95"/>
-      <c r="C19" s="100"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="1" t="s">
         <v>94</v>
       </c>
@@ -4099,12 +4099,12 @@
       <c r="G19" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
     </row>
     <row r="20" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B20" s="95"/>
-      <c r="C20" s="101"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="1" t="s">
         <v>97</v>
       </c>
@@ -4117,11 +4117,11 @@
       <c r="G20" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
     </row>
     <row r="21" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B21" s="95"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="86" t="s">
         <v>100</v>
       </c>
@@ -4137,11 +4137,11 @@
       <c r="G21" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
     </row>
     <row r="22" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B22" s="95"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="87"/>
       <c r="D22" s="1" t="s">
         <v>104</v>
@@ -4155,11 +4155,11 @@
       <c r="G22" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
     </row>
     <row r="23" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B23" s="96"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="46" t="s">
         <v>107</v>
       </c>
@@ -4169,8 +4169,8 @@
       <c r="G23" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="86" t="s">
@@ -4306,13 +4306,17 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -4322,20 +4326,16 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/機能一覧_第1.0版.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/機能一覧_第1.0版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakaiharuka/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755EFC22-380E-3A45-952B-EC222A0C80A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EF6F6BA1-E1DB-5048-9E7E-886C626C32D4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -579,10 +579,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Slac</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投票ルーム待機画面から投票ルーム投票中止画面への切り替えを行う</t>
     <rPh sb="0" eb="4">
       <t>タイキガメン</t>
@@ -992,6 +988,10 @@
     <rPh sb="0" eb="1">
       <t>キテ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slack</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1404,60 +1404,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,21 +1438,111 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1512,48 +1554,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1866,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="F28" sqref="F28:I28"/>
     </sheetView>
   </sheetViews>
@@ -2307,14 +2307,14 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
-      <c r="Y3" s="47" t="s">
+      <c r="Y3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="48"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="69"/>
       <c r="AE3" s="17"/>
       <c r="AF3" s="20"/>
     </row>
@@ -2415,7 +2415,7 @@
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
@@ -2483,18 +2483,18 @@
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="49" t="s">
+      <c r="Y8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="49" t="s">
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="49" t="s">
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AD8" s="51"/>
+      <c r="AD8" s="49"/>
       <c r="AF8" s="20"/>
     </row>
     <row r="9" spans="1:176" ht="12.75" customHeight="1">
@@ -2505,20 +2505,20 @@
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
+      <c r="F9" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -2526,40 +2526,40 @@
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="56" t="s">
+      <c r="Y9" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="AD9" s="57"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD9" s="75"/>
       <c r="AF9" s="20"/>
     </row>
     <row r="10" spans="1:176" ht="12.75" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="77"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="59"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -2567,32 +2567,32 @@
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="59"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="77"/>
       <c r="AF10" s="20"/>
     </row>
     <row r="11" spans="1:176" ht="12.75" customHeight="1">
       <c r="A11" s="16"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="80"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="62"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -2600,12 +2600,12 @@
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="19"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="79"/>
       <c r="AF11" s="20"/>
     </row>
     <row r="12" spans="1:176" ht="12.75" customHeight="1">
@@ -2824,18 +2824,18 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="81" t="s">
+      <c r="L18" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="19"/>
@@ -2860,16 +2860,16 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="19"/>
@@ -2894,16 +2894,16 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
@@ -3134,75 +3134,75 @@
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="83">
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="65">
         <v>43605</v>
       </c>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="49" t="s">
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="51"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="49"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE27" s="17"/>
       <c r="AF27" s="20"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="51"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="49"/>
       <c r="AC28" s="30"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="17"/>
@@ -3754,13 +3754,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:Q11"/>
-    <mergeCell ref="L18:U20"/>
-    <mergeCell ref="F27:I27"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="J27:AB27"/>
     <mergeCell ref="B27:E27"/>
@@ -3772,6 +3765,13 @@
     <mergeCell ref="Y9:Z11"/>
     <mergeCell ref="AA9:AB11"/>
     <mergeCell ref="AC9:AD11"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:Q11"/>
+    <mergeCell ref="L18:U20"/>
+    <mergeCell ref="F27:I27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3785,10 +3785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I36"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -3805,36 +3805,36 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="2" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="99" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
       <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B3" s="107"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
@@ -3843,16 +3843,16 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B4" s="108"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
@@ -3861,32 +3861,32 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="99" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="36"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B6" s="108"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3913,16 +3913,16 @@
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="103"/>
     </row>
     <row r="10" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B10" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="95" t="s">
+      <c r="B10" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="86" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3937,12 +3937,12 @@
       <c r="G10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="108"/>
     </row>
     <row r="11" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B11" s="99"/>
-      <c r="C11" s="96"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
@@ -3955,14 +3955,14 @@
       <c r="G11" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="88"/>
+      <c r="I11" s="104"/>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B12" s="99"/>
-      <c r="C12" s="96"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
@@ -3975,14 +3975,14 @@
       <c r="G12" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="91" t="s">
+      <c r="H12" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="92"/>
+      <c r="I12" s="106"/>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B13" s="99"/>
-      <c r="C13" s="96"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
@@ -3995,12 +3995,12 @@
       <c r="G13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106"/>
     </row>
     <row r="14" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B14" s="99"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
@@ -4013,14 +4013,14 @@
       <c r="G14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="91" t="s">
+      <c r="H14" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="92"/>
+      <c r="I14" s="106"/>
     </row>
     <row r="15" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B15" s="99"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
@@ -4031,226 +4031,236 @@
         <v>38</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
+        <v>62</v>
+      </c>
+      <c r="H15" s="105"/>
+      <c r="I15" s="106"/>
     </row>
     <row r="16" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B16" s="99"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="43"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="41"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
     </row>
     <row r="17" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B17" s="99"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>87</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>88</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+    </row>
+    <row r="18" spans="2:9" ht="23.25" customHeight="1">
+      <c r="B18" s="90"/>
+      <c r="C18" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-    </row>
-    <row r="18" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B18" s="99"/>
-      <c r="C18" s="103" t="s">
+      <c r="D18" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+    </row>
+    <row r="19" spans="2:9" ht="23.25" customHeight="1">
+      <c r="B19" s="90"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-    </row>
-    <row r="19" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B19" s="99"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+    </row>
+    <row r="20" spans="2:9" ht="23.25" customHeight="1">
+      <c r="B20" s="90"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-    </row>
-    <row r="20" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B20" s="99"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+    </row>
+    <row r="21" spans="2:9" ht="23.25" customHeight="1">
+      <c r="B21" s="90"/>
+      <c r="C21" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-    </row>
-    <row r="21" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B21" s="99"/>
-      <c r="C21" s="86" t="s">
+      <c r="D21" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+    </row>
+    <row r="22" spans="2:9" ht="23.25" customHeight="1">
+      <c r="B22" s="90"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-    </row>
-    <row r="22" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B22" s="99"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+    </row>
+    <row r="23" spans="2:9" ht="23.25" customHeight="1">
+      <c r="B23" s="91"/>
+      <c r="C23" s="46" t="s">
         <v>106</v>
-      </c>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-    </row>
-    <row r="23" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B23" s="100"/>
-      <c r="C23" s="46" t="s">
-        <v>107</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="38"/>
       <c r="F23" s="40"/>
       <c r="G23" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
+        <v>107</v>
+      </c>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="D25" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="E25" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="F25" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="38" t="s">
-        <v>68</v>
-      </c>
       <c r="G25" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="87"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="G26" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="98"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="38" t="s">
+      <c r="G29" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="97" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="87"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>77</v>
-      </c>
+      <c r="C31" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>82</v>
-      </c>
+      <c r="B32" s="98"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="38" t="s">
         <v>83</v>
       </c>
@@ -4258,23 +4268,29 @@
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
     </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="87"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
+    <row r="34" spans="2:7">
+      <c r="B34" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>115</v>
-      </c>
+      <c r="B35" s="98"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="38" t="s">
         <v>116</v>
       </c>
@@ -4288,24 +4304,27 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="87"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B23"/>
     <mergeCell ref="D2:G2"/>
@@ -4317,25 +4336,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
